--- a/docs/PM-1 Project Management/PM-1.2 Plans/PM-1.2.1 Project Plan/vms_pm121_implementation_plan_v0.1a.xlsx
+++ b/docs/PM-1 Project Management/PM-1.2 Plans/PM-1.2.1 Project Plan/vms_pm121_implementation_plan_v0.1a.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21750" windowHeight="13650" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="21750" windowHeight="13590" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overall!$A$1:$E$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tasks!$A$1:$N$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tasks!$A$1:$N$119</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="166">
   <si>
     <t>No</t>
   </si>
@@ -463,9 +463,6 @@
     <t>Data Model Specs</t>
   </si>
   <si>
-    <t>WIP</t>
-  </si>
-  <si>
     <t>New</t>
   </si>
   <si>
@@ -695,6 +692,15 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Request for Certificate (by Project)</t>
+  </si>
+  <si>
+    <t>Generate Certificate (for Project &amp; Volunteer)</t>
+  </si>
+  <si>
+    <t>Find code to do upload to table</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1461,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1503,6 +1509,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2073,7 +2082,7 @@
     <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="349">
+  <dxfs count="67">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2081,6 +2090,246 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2491,3066 +2740,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6713,11 +3902,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6860,7 +4049,7 @@
         <v>79</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>81</v>
@@ -6896,7 +4085,7 @@
         <v>81</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>81</v>
@@ -6934,10 +4123,10 @@
         <v>79</v>
       </c>
       <c r="C6" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>82</v>
@@ -6970,10 +4159,10 @@
         <v>79</v>
       </c>
       <c r="C7" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>92</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>82</v>
@@ -6982,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H7" s="20">
         <v>40901</v>
@@ -6997,7 +4186,7 @@
         <v>40901</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M7" s="19" t="s">
         <v>6</v>
@@ -7008,10 +4197,10 @@
         <v>79</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>82</v>
@@ -7020,7 +4209,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H8" s="20">
         <v>40902</v>
@@ -7035,7 +4224,7 @@
         <v>40901</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M8" s="19" t="s">
         <v>6</v>
@@ -7046,10 +4235,10 @@
         <v>79</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>82</v>
@@ -7058,25 +4247,17 @@
         <v>1</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" s="20">
-        <v>40901</v>
+        <v>40545</v>
       </c>
       <c r="I9" s="20">
-        <v>40903</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="20">
-        <v>40901</v>
-      </c>
+        <v>40911</v>
+      </c>
+      <c r="K9" s="20"/>
       <c r="L9" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7084,10 +4265,10 @@
         <v>79</v>
       </c>
       <c r="C10" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>82</v>
@@ -7096,25 +4277,17 @@
         <v>2</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="20">
-        <v>40902</v>
+        <v>40545</v>
       </c>
       <c r="I10" s="20">
-        <v>40904</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="20">
-        <v>40901</v>
-      </c>
+        <v>40911</v>
+      </c>
+      <c r="K10" s="20"/>
       <c r="L10" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7122,10 +4295,10 @@
         <v>79</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>82</v>
@@ -7134,7 +4307,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H11" s="20">
         <v>40901</v>
@@ -7149,7 +4322,7 @@
         <v>40902</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>6</v>
@@ -7160,10 +4333,10 @@
         <v>79</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>82</v>
@@ -7172,7 +4345,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H12" s="20">
         <v>40902</v>
@@ -7187,21 +4360,21 @@
         <v>40902</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M12" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>96</v>
-      </c>
       <c r="D13" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>82</v>
@@ -7225,21 +4398,21 @@
         <v>40902</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M13" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>82</v>
@@ -7263,7 +4436,7 @@
         <v>40902</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M14" s="19" t="s">
         <v>39</v>
@@ -7271,13 +4444,13 @@
     </row>
     <row r="15" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>99</v>
-      </c>
       <c r="D15" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>82</v>
@@ -7286,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H15" s="20">
         <v>40903</v>
@@ -7301,7 +4474,7 @@
         <v>40905</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>39</v>
@@ -7312,10 +4485,10 @@
         <v>79</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>82</v>
@@ -7343,27 +4516,27 @@
         <v>6</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="D17" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>103</v>
       </c>
       <c r="F17" s="23">
         <v>1</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H17" s="20">
         <v>40907</v>
@@ -7375,18 +4548,18 @@
         <v>39</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>82</v>
@@ -7408,7 +4581,7 @@
       </c>
       <c r="K18" s="20"/>
       <c r="L18" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7416,10 +4589,10 @@
         <v>79</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>82</v>
@@ -7428,7 +4601,7 @@
         <v>4</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H19" s="20">
         <v>40903</v>
@@ -7440,7 +4613,7 @@
         <v>5</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7448,10 +4621,10 @@
         <v>79</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>82</v>
@@ -7460,7 +4633,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H20" s="20">
         <v>40903</v>
@@ -7472,7 +4645,7 @@
         <v>5</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7480,10 +4653,10 @@
         <v>79</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>82</v>
@@ -7492,7 +4665,7 @@
         <v>6</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H21" s="20">
         <v>40904</v>
@@ -7504,7 +4677,7 @@
         <v>5</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7512,10 +4685,10 @@
         <v>79</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>82</v>
@@ -7524,7 +4697,7 @@
         <v>7</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H22" s="20">
         <v>40905</v>
@@ -7536,7 +4709,7 @@
         <v>5</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7547,7 +4720,7 @@
         <v>30</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>82</v>
@@ -7556,7 +4729,7 @@
         <v>8</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H23" s="20">
         <v>40906</v>
@@ -7568,7 +4741,7 @@
         <v>5</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7579,7 +4752,7 @@
         <v>12</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>82</v>
@@ -7588,7 +4761,7 @@
         <v>9</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H24" s="20">
         <v>40907</v>
@@ -7600,7 +4773,7 @@
         <v>5</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7608,19 +4781,19 @@
         <v>79</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F25" s="23">
         <v>10</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H25" s="20">
         <v>40905</v>
@@ -7632,7 +4805,7 @@
         <v>6</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7643,16 +4816,16 @@
         <v>23</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F26" s="23">
         <v>11</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H26" s="20">
         <v>40906</v>
@@ -7664,7 +4837,7 @@
         <v>6</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7675,16 +4848,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F27" s="23">
         <v>12</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H27" s="20">
         <v>40906</v>
@@ -7696,7 +4869,7 @@
         <v>6</v>
       </c>
       <c r="L27" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7704,10 +4877,10 @@
         <v>79</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>82</v>
@@ -7716,19 +4889,16 @@
         <v>3</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H28" s="20">
-        <v>40903</v>
+        <v>40545</v>
       </c>
       <c r="I28" s="20">
-        <v>40903</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>5</v>
+        <v>40911</v>
       </c>
       <c r="L28" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7736,10 +4906,10 @@
         <v>79</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>82</v>
@@ -7748,19 +4918,16 @@
         <v>4</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H29" s="20">
-        <v>40903</v>
+        <v>40545</v>
       </c>
       <c r="I29" s="20">
-        <v>40903</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>5</v>
+        <v>40911</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7768,10 +4935,10 @@
         <v>79</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>82</v>
@@ -7780,19 +4947,16 @@
         <v>5</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H30" s="20">
-        <v>40903</v>
+        <v>40545</v>
       </c>
       <c r="I30" s="20">
-        <v>40903</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>5</v>
+        <v>40911</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7800,10 +4964,10 @@
         <v>79</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>82</v>
@@ -7812,19 +4976,16 @@
         <v>6</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H31" s="20">
-        <v>40904</v>
+        <v>40545</v>
       </c>
       <c r="I31" s="20">
-        <v>40904</v>
-      </c>
-      <c r="J31" s="19" t="s">
-        <v>5</v>
+        <v>40911</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7832,10 +4993,10 @@
         <v>79</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>82</v>
@@ -7844,19 +5005,16 @@
         <v>7</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H32" s="20">
-        <v>40905</v>
+        <v>40545</v>
       </c>
       <c r="I32" s="20">
-        <v>40905</v>
-      </c>
-      <c r="J32" s="19" t="s">
-        <v>5</v>
+        <v>40911</v>
       </c>
       <c r="L32" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7867,7 +5025,7 @@
         <v>30</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>82</v>
@@ -7876,19 +5034,16 @@
         <v>8</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H33" s="20">
-        <v>40906</v>
+        <v>40545</v>
       </c>
       <c r="I33" s="20">
-        <v>40906</v>
-      </c>
-      <c r="J33" s="19" t="s">
-        <v>5</v>
+        <v>40911</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7899,7 +5054,7 @@
         <v>12</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>82</v>
@@ -7908,19 +5063,16 @@
         <v>9</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H34" s="20">
-        <v>40907</v>
+        <v>40545</v>
       </c>
       <c r="I34" s="20">
-        <v>40907</v>
-      </c>
-      <c r="J34" s="19" t="s">
-        <v>5</v>
+        <v>40911</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7928,10 +5080,10 @@
         <v>79</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>82</v>
@@ -7940,83 +5092,74 @@
         <v>10</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H35" s="20">
-        <v>40905</v>
+        <v>40545</v>
       </c>
       <c r="I35" s="20">
-        <v>40905</v>
-      </c>
-      <c r="J35" s="19" t="s">
-        <v>6</v>
+        <v>40911</v>
       </c>
       <c r="L35" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="19" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F36" s="19">
         <v>11</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H36" s="20">
-        <v>40906</v>
+        <v>40545</v>
       </c>
       <c r="I36" s="20">
-        <v>40906</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>6</v>
+        <v>40911</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F37" s="19">
         <v>12</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H37" s="20">
-        <v>40906</v>
+        <v>40545</v>
       </c>
       <c r="I37" s="20">
-        <v>40906</v>
-      </c>
-      <c r="J37" s="19" t="s">
-        <v>6</v>
+        <v>40911</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8024,10 +5167,10 @@
         <v>79</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>82</v>
@@ -8036,7 +5179,7 @@
         <v>3</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H38" s="20">
         <v>40903</v>
@@ -8049,7 +5192,7 @@
       </c>
       <c r="K38" s="20"/>
       <c r="L38" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M38" s="19" t="s">
         <v>7</v>
@@ -8060,10 +5203,10 @@
         <v>79</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>82</v>
@@ -8072,7 +5215,7 @@
         <v>4</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H39" s="20">
         <v>40903</v>
@@ -8085,7 +5228,7 @@
       </c>
       <c r="K39" s="20"/>
       <c r="L39" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M39" s="19" t="s">
         <v>7</v>
@@ -8096,10 +5239,10 @@
         <v>79</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>82</v>
@@ -8108,7 +5251,7 @@
         <v>5</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H40" s="20">
         <v>40903</v>
@@ -8120,7 +5263,7 @@
         <v>9</v>
       </c>
       <c r="L40" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M40" s="19" t="s">
         <v>7</v>
@@ -8131,10 +5274,10 @@
         <v>79</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>82</v>
@@ -8143,7 +5286,7 @@
         <v>6</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H41" s="20">
         <v>40903</v>
@@ -8155,7 +5298,7 @@
         <v>9</v>
       </c>
       <c r="L41" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M41" s="19" t="s">
         <v>7</v>
@@ -8166,10 +5309,10 @@
         <v>79</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>82</v>
@@ -8178,7 +5321,7 @@
         <v>7</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H42" s="20">
         <v>40903</v>
@@ -8190,7 +5333,7 @@
         <v>9</v>
       </c>
       <c r="L42" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M42" s="19" t="s">
         <v>7</v>
@@ -8204,7 +5347,7 @@
         <v>30</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>82</v>
@@ -8213,7 +5356,7 @@
         <v>8</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H43" s="20">
         <v>40903</v>
@@ -8225,7 +5368,7 @@
         <v>9</v>
       </c>
       <c r="L43" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M43" s="19" t="s">
         <v>7</v>
@@ -8239,7 +5382,7 @@
         <v>12</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>82</v>
@@ -8248,7 +5391,7 @@
         <v>9</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H44" s="20">
         <v>40903</v>
@@ -8260,7 +5403,7 @@
         <v>9</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M44" s="19" t="s">
         <v>7</v>
@@ -8271,10 +5414,10 @@
         <v>79</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>82</v>
@@ -8283,7 +5426,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H45" s="20">
         <v>40903</v>
@@ -8295,7 +5438,7 @@
         <v>9</v>
       </c>
       <c r="L45" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M45" s="19" t="s">
         <v>7</v>
@@ -8309,16 +5452,16 @@
         <v>23</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F46" s="19">
         <v>11</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H46" s="20">
         <v>40903</v>
@@ -8330,7 +5473,7 @@
         <v>9</v>
       </c>
       <c r="L46" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M46" s="19" t="s">
         <v>7</v>
@@ -8344,16 +5487,16 @@
         <v>22</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F47" s="19">
         <v>12</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H47" s="20">
         <v>40903</v>
@@ -8365,7 +5508,7 @@
         <v>9</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M47" s="19" t="s">
         <v>7</v>
@@ -8373,13 +5516,13 @@
     </row>
     <row r="48" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="19" t="s">
-        <v>112</v>
-      </c>
       <c r="D48" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>82</v>
@@ -8388,7 +5531,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H48" s="20">
         <v>40903</v>
@@ -8400,18 +5543,18 @@
         <v>8</v>
       </c>
       <c r="L48" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>82</v>
@@ -8420,7 +5563,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H49" s="20">
         <v>40903</v>
@@ -8432,18 +5575,18 @@
         <v>5</v>
       </c>
       <c r="L49" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>82</v>
@@ -8452,7 +5595,7 @@
         <v>3</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H50" s="20">
         <v>40904</v>
@@ -8464,18 +5607,18 @@
         <v>8</v>
       </c>
       <c r="L50" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>82</v>
@@ -8484,7 +5627,7 @@
         <v>4</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H51" s="20">
         <v>40905</v>
@@ -8496,18 +5639,18 @@
         <v>8</v>
       </c>
       <c r="L51" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>82</v>
@@ -8516,7 +5659,7 @@
         <v>5</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H52" s="20">
         <v>40906</v>
@@ -8528,27 +5671,27 @@
         <v>8</v>
       </c>
       <c r="L52" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F53" s="23">
         <v>6</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H53" s="20">
         <v>40909</v>
@@ -8560,27 +5703,27 @@
         <v>5</v>
       </c>
       <c r="L53" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F54" s="23">
         <v>7</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H54" s="20">
         <v>40909</v>
@@ -8592,44 +5735,46 @@
         <v>5</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="2:13" s="21" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F55" s="24">
         <v>8</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>163</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
       <c r="J55" s="21" t="s">
         <v>6</v>
       </c>
       <c r="L55" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="19" t="s">
-        <v>112</v>
-      </c>
       <c r="D56" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>82</v>
@@ -8638,30 +5783,27 @@
         <v>1</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H56" s="20">
-        <v>40903</v>
+        <v>40545</v>
       </c>
       <c r="I56" s="20">
-        <v>40903</v>
-      </c>
-      <c r="J56" s="19" t="s">
-        <v>8</v>
+        <v>40911</v>
       </c>
       <c r="L56" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E57" s="19" t="s">
         <v>82</v>
@@ -8670,30 +5812,27 @@
         <v>2</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H57" s="20">
-        <v>40903</v>
+        <v>40545</v>
       </c>
       <c r="I57" s="20">
-        <v>40903</v>
-      </c>
-      <c r="J57" s="19" t="s">
-        <v>8</v>
+        <v>40911</v>
       </c>
       <c r="L57" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>82</v>
@@ -8702,30 +5841,27 @@
         <v>3</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H58" s="20">
-        <v>40904</v>
+        <v>40545</v>
       </c>
       <c r="I58" s="20">
-        <v>40904</v>
-      </c>
-      <c r="J58" s="19" t="s">
-        <v>8</v>
+        <v>40911</v>
       </c>
       <c r="L58" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>82</v>
@@ -8734,30 +5870,27 @@
         <v>4</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H59" s="20">
-        <v>40905</v>
+        <v>40545</v>
       </c>
       <c r="I59" s="20">
-        <v>40905</v>
-      </c>
-      <c r="J59" s="19" t="s">
-        <v>8</v>
+        <v>40911</v>
       </c>
       <c r="L59" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>82</v>
@@ -8766,103 +5899,110 @@
         <v>5</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H60" s="20">
-        <v>40906</v>
+        <v>40545</v>
       </c>
       <c r="I60" s="20">
-        <v>40906</v>
-      </c>
-      <c r="J60" s="19" t="s">
-        <v>8</v>
+        <v>40911</v>
       </c>
       <c r="L60" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F61" s="19">
         <v>6</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
+        <v>86</v>
+      </c>
+      <c r="H61" s="20">
+        <v>40545</v>
+      </c>
+      <c r="I61" s="20">
+        <v>40911</v>
+      </c>
       <c r="L61" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F62" s="19">
         <v>7</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
+        <v>86</v>
+      </c>
+      <c r="H62" s="20">
+        <v>40545</v>
+      </c>
+      <c r="I62" s="20">
+        <v>40911</v>
+      </c>
       <c r="L62" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F63" s="19">
         <v>8</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>87</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
       <c r="L63" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C64" s="19" t="s">
-        <v>112</v>
-      </c>
       <c r="D64" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>82</v>
@@ -8871,7 +6011,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H64" s="20">
         <v>40903</v>
@@ -8884,7 +6024,7 @@
       </c>
       <c r="K64" s="20"/>
       <c r="L64" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M64" s="19" t="s">
         <v>9</v>
@@ -8892,13 +6032,13 @@
     </row>
     <row r="65" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>82</v>
@@ -8907,7 +6047,7 @@
         <v>2</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H65" s="20">
         <v>40903</v>
@@ -8920,7 +6060,7 @@
       </c>
       <c r="K65" s="20"/>
       <c r="L65" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M65" s="19" t="s">
         <v>9</v>
@@ -8928,13 +6068,13 @@
     </row>
     <row r="66" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>82</v>
@@ -8943,7 +6083,7 @@
         <v>3</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H66" s="20">
         <v>40903</v>
@@ -8955,7 +6095,7 @@
         <v>7</v>
       </c>
       <c r="L66" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M66" s="19" t="s">
         <v>9</v>
@@ -8963,13 +6103,13 @@
     </row>
     <row r="67" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E67" s="19" t="s">
         <v>82</v>
@@ -8978,7 +6118,7 @@
         <v>4</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H67" s="20">
         <v>40903</v>
@@ -8990,7 +6130,7 @@
         <v>7</v>
       </c>
       <c r="L67" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M67" s="19" t="s">
         <v>9</v>
@@ -8998,13 +6138,13 @@
     </row>
     <row r="68" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>82</v>
@@ -9013,7 +6153,7 @@
         <v>5</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H68" s="20">
         <v>40903</v>
@@ -9025,7 +6165,7 @@
         <v>7</v>
       </c>
       <c r="L68" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M68" s="19" t="s">
         <v>9</v>
@@ -9033,22 +6173,22 @@
     </row>
     <row r="69" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C69" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F69" s="19">
         <v>6</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
@@ -9056,7 +6196,7 @@
         <v>7</v>
       </c>
       <c r="L69" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M69" s="19" t="s">
         <v>9</v>
@@ -9064,22 +6204,22 @@
     </row>
     <row r="70" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F70" s="19">
         <v>7</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
@@ -9087,7 +6227,7 @@
         <v>7</v>
       </c>
       <c r="L70" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M70" s="19" t="s">
         <v>9</v>
@@ -9095,22 +6235,22 @@
     </row>
     <row r="71" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F71" s="19">
         <v>8</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
@@ -9118,7 +6258,7 @@
         <v>7</v>
       </c>
       <c r="L71" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M71" s="19" t="s">
         <v>9</v>
@@ -9126,100 +6266,106 @@
     </row>
     <row r="72" spans="2:13" s="21" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C72" s="21" t="s">
-        <v>119</v>
-      </c>
       <c r="D72" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F72" s="24">
         <v>1</v>
       </c>
       <c r="G72" s="21" t="s">
-        <v>163</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
       <c r="J72" s="21" t="s">
         <v>39</v>
       </c>
       <c r="L72" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="2:13" s="21" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F73" s="24">
         <v>2</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>163</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
       <c r="J73" s="21" t="s">
         <v>39</v>
       </c>
       <c r="L73" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="2:13" s="21" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F74" s="24">
         <v>3</v>
       </c>
       <c r="G74" s="21" t="s">
-        <v>163</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
       <c r="J74" s="21" t="s">
         <v>39</v>
       </c>
       <c r="L74" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C75" s="19" t="s">
-        <v>119</v>
-      </c>
       <c r="D75" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F75" s="19">
         <v>1</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="H75" s="20"/>
       <c r="I75" s="20"/>
@@ -9227,27 +6373,27 @@
         <v>39</v>
       </c>
       <c r="L75" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F76" s="19">
         <v>2</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="H76" s="20"/>
       <c r="I76" s="20"/>
@@ -9255,27 +6401,27 @@
         <v>39</v>
       </c>
       <c r="L76" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F77" s="19">
         <v>3</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="H77" s="20"/>
       <c r="I77" s="20"/>
@@ -9283,27 +6429,27 @@
         <v>39</v>
       </c>
       <c r="L77" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C78" s="19" t="s">
-        <v>119</v>
-      </c>
       <c r="D78" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F78" s="19">
         <v>1</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H78" s="20"/>
       <c r="I78" s="20"/>
@@ -9312,7 +6458,7 @@
       </c>
       <c r="K78" s="20"/>
       <c r="L78" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M78" s="19" t="s">
         <v>7</v>
@@ -9320,22 +6466,22 @@
     </row>
     <row r="79" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F79" s="19">
         <v>2</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H79" s="20"/>
       <c r="I79" s="20"/>
@@ -9344,7 +6490,7 @@
       </c>
       <c r="K79" s="20"/>
       <c r="L79" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M79" s="19" t="s">
         <v>7</v>
@@ -9352,22 +6498,22 @@
     </row>
     <row r="80" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F80" s="19">
         <v>3</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H80" s="20"/>
       <c r="I80" s="20"/>
@@ -9375,7 +6521,7 @@
         <v>9</v>
       </c>
       <c r="L80" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M80" s="19" t="s">
         <v>7</v>
@@ -9383,48 +6529,50 @@
     </row>
     <row r="81" spans="2:13" s="21" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F81" s="24">
         <v>1</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>163</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
       <c r="J81" s="21" t="s">
         <v>6</v>
       </c>
       <c r="L81" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F82" s="23">
         <v>1</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H82" s="20">
         <v>40903</v>
@@ -9433,90 +6581,91 @@
         <v>40903</v>
       </c>
       <c r="J82" s="19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L82" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C83" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" s="21" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C83" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D83" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E83" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F83" s="23">
+      <c r="D83" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F83" s="24">
         <v>2</v>
       </c>
-      <c r="G83" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="H83" s="20">
+      <c r="G83" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H83" s="25">
         <v>40903</v>
       </c>
-      <c r="I83" s="20">
+      <c r="I83" s="25">
         <v>40903</v>
       </c>
-      <c r="J83" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L83" s="19" t="s">
-        <v>87</v>
+      <c r="J83" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="21" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C84" s="19" t="s">
-        <v>124</v>
-      </c>
       <c r="D84" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F84" s="19">
         <v>1</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="19" t="s">
-        <v>10</v>
+        <v>86</v>
+      </c>
+      <c r="H84" s="20">
+        <v>40545</v>
+      </c>
+      <c r="I84" s="20">
+        <v>40911</v>
       </c>
       <c r="L84" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>32</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F85" s="19">
         <v>2</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="H85" s="20"/>
       <c r="I85" s="20"/>
@@ -9524,27 +6673,27 @@
         <v>10</v>
       </c>
       <c r="L85" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C86" s="19" t="s">
-        <v>124</v>
-      </c>
       <c r="D86" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F86" s="19">
         <v>1</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H86" s="20">
         <v>40904</v>
@@ -9556,7 +6705,7 @@
         <v>7</v>
       </c>
       <c r="L86" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M86" s="19" t="s">
         <v>9</v>
@@ -9564,22 +6713,22 @@
     </row>
     <row r="87" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C87" s="19" t="s">
         <v>32</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F87" s="19">
         <v>2</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H87" s="20">
         <v>40904</v>
@@ -9591,7 +6740,7 @@
         <v>7</v>
       </c>
       <c r="L87" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M87" s="19" t="s">
         <v>9</v>
@@ -9599,100 +6748,106 @@
     </row>
     <row r="88" spans="2:13" s="21" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C88" s="21" t="s">
-        <v>126</v>
-      </c>
       <c r="D88" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F88" s="24">
         <v>1</v>
       </c>
       <c r="G88" s="21" t="s">
-        <v>163</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
       <c r="J88" s="21" t="s">
         <v>10</v>
       </c>
       <c r="L88" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="2:13" s="21" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F89" s="24">
         <v>2</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>163</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
       <c r="J89" s="21" t="s">
         <v>10</v>
       </c>
       <c r="L89" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="2:13" s="21" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F90" s="24">
         <v>3</v>
       </c>
       <c r="G90" s="21" t="s">
-        <v>163</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
       <c r="J90" s="21" t="s">
         <v>10</v>
       </c>
       <c r="L90" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="19" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C91" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F91" s="23">
         <v>4</v>
       </c>
       <c r="G91" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H91" s="20">
         <v>40909</v>
@@ -9701,30 +6856,30 @@
         <v>40910</v>
       </c>
       <c r="J91" s="19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L91" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="19" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F92" s="23">
         <v>5</v>
       </c>
       <c r="G92" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H92" s="20">
         <v>40909</v>
@@ -9736,27 +6891,27 @@
         <v>6</v>
       </c>
       <c r="L92" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C93" s="19" t="s">
-        <v>126</v>
-      </c>
       <c r="D93" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F93" s="19">
         <v>1</v>
       </c>
       <c r="G93" s="19" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="H93" s="20"/>
       <c r="I93" s="20"/>
@@ -9764,27 +6919,27 @@
         <v>10</v>
       </c>
       <c r="L93" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F94" s="19">
         <v>2</v>
       </c>
       <c r="G94" s="19" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="H94" s="20"/>
       <c r="I94" s="20"/>
@@ -9792,27 +6947,27 @@
         <v>10</v>
       </c>
       <c r="L94" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F95" s="19">
         <v>3</v>
       </c>
       <c r="G95" s="19" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="H95" s="20"/>
       <c r="I95" s="20"/>
@@ -9820,27 +6975,27 @@
         <v>10</v>
       </c>
       <c r="L95" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C96" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F96" s="19">
         <v>4</v>
       </c>
       <c r="G96" s="19" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="H96" s="20"/>
       <c r="I96" s="20"/>
@@ -9848,27 +7003,27 @@
         <v>10</v>
       </c>
       <c r="L96" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C97" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F97" s="19">
         <v>5</v>
       </c>
       <c r="G97" s="19" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
@@ -9876,27 +7031,27 @@
         <v>10</v>
       </c>
       <c r="L97" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C98" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C98" s="19" t="s">
-        <v>126</v>
-      </c>
       <c r="D98" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F98" s="19">
         <v>1</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H98" s="20"/>
       <c r="I98" s="20"/>
@@ -9904,27 +7059,27 @@
         <v>7</v>
       </c>
       <c r="L98" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F99" s="19">
         <v>2</v>
       </c>
       <c r="G99" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
@@ -9932,27 +7087,27 @@
         <v>7</v>
       </c>
       <c r="L99" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F100" s="19">
         <v>3</v>
       </c>
       <c r="G100" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
@@ -9960,27 +7115,27 @@
         <v>7</v>
       </c>
       <c r="L100" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C101" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F101" s="19">
         <v>4</v>
       </c>
       <c r="G101" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H101" s="20"/>
       <c r="I101" s="20"/>
@@ -9988,27 +7143,27 @@
         <v>7</v>
       </c>
       <c r="L101" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C102" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F102" s="19">
         <v>5</v>
       </c>
       <c r="G102" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
@@ -10016,18 +7171,18 @@
         <v>7</v>
       </c>
       <c r="L102" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C103" s="19" t="s">
-        <v>131</v>
-      </c>
       <c r="D103" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>82</v>
@@ -10036,7 +7191,7 @@
         <v>2</v>
       </c>
       <c r="G103" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H103" s="20">
         <v>40903</v>
@@ -10048,27 +7203,27 @@
         <v>7</v>
       </c>
       <c r="L103" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F104" s="19">
         <v>6</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H104" s="20">
         <v>40903</v>
@@ -10080,27 +7235,27 @@
         <v>7</v>
       </c>
       <c r="L104" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F105" s="19">
         <v>7</v>
       </c>
       <c r="G105" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H105" s="20">
         <v>40903</v>
@@ -10112,18 +7267,18 @@
         <v>7</v>
       </c>
       <c r="L105" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>82</v>
@@ -10132,7 +7287,7 @@
         <v>4</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H106" s="20">
         <v>40908</v>
@@ -10144,18 +7299,18 @@
         <v>7</v>
       </c>
       <c r="L106" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>82</v>
@@ -10164,7 +7319,7 @@
         <v>5</v>
       </c>
       <c r="G107" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H107" s="20">
         <v>40907</v>
@@ -10176,18 +7331,18 @@
         <v>7</v>
       </c>
       <c r="L107" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="108" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>82</v>
@@ -10196,7 +7351,7 @@
         <v>3</v>
       </c>
       <c r="G108" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H108" s="20">
         <v>40912</v>
@@ -10208,18 +7363,18 @@
         <v>6</v>
       </c>
       <c r="L108" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E109" s="19" t="s">
         <v>82</v>
@@ -10228,7 +7383,7 @@
         <v>1</v>
       </c>
       <c r="G109" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H109" s="20">
         <v>40909</v>
@@ -10237,21 +7392,21 @@
         <v>40914</v>
       </c>
       <c r="J109" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L109" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="110" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>82</v>
@@ -10273,18 +7428,18 @@
       </c>
       <c r="K110" s="20"/>
       <c r="L110" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>82</v>
@@ -10293,7 +7448,7 @@
         <v>1</v>
       </c>
       <c r="G111" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H111" s="20">
         <v>40909</v>
@@ -10305,18 +7460,18 @@
         <v>6</v>
       </c>
       <c r="L111" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E112" s="19" t="s">
         <v>82</v>
@@ -10325,7 +7480,7 @@
         <v>2</v>
       </c>
       <c r="G112" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H112" s="20">
         <v>40908</v>
@@ -10337,21 +7492,21 @@
         <v>6</v>
       </c>
       <c r="L112" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="113" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F113" s="23">
         <v>1</v>
@@ -10369,18 +7524,18 @@
         <v>39</v>
       </c>
       <c r="L113" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="114" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E114" s="19" t="s">
         <v>82</v>
@@ -10401,7 +7556,7 @@
         <v>6</v>
       </c>
       <c r="L114" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10409,7 +7564,7 @@
         <v>81</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D115" s="19" t="s">
         <v>81</v>
@@ -10428,21 +7583,21 @@
         <v>40907</v>
       </c>
       <c r="J115" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L115" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="116" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E116" s="19" t="s">
         <v>82</v>
@@ -10463,27 +7618,27 @@
         <v>6</v>
       </c>
       <c r="L116" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E117" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F117" s="23">
         <v>2</v>
       </c>
       <c r="G117" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H117" s="20">
         <v>40909</v>
@@ -10492,21 +7647,21 @@
         <v>40909</v>
       </c>
       <c r="J117" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L117" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>82</v>
@@ -10515,7 +7670,7 @@
         <v>3</v>
       </c>
       <c r="G118" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H118" s="20">
         <v>40909</v>
@@ -10527,11 +7682,43 @@
         <v>8</v>
       </c>
       <c r="L118" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E119" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F119" s="23">
+        <v>2</v>
+      </c>
+      <c r="G119" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H119" s="20">
+        <v>40910</v>
+      </c>
+      <c r="I119" s="20">
+        <v>40910</v>
+      </c>
+      <c r="J119" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L119" s="19" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N118">
+  <autoFilter ref="A1:N119">
     <filterColumn colId="3">
       <filters>
         <filter val="Code"/>
@@ -10539,147 +7726,231 @@
     </filterColumn>
     <filterColumn colId="6">
       <filters>
+        <filter val="Done"/>
         <filter val="New"/>
-        <filter val="WIP"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="G1:G71 G75:G87 G91:G1048576">
-    <cfRule type="containsText" dxfId="81" priority="66" operator="containsText" text="Done">
+  <conditionalFormatting sqref="G1:G71 G75:G82 G84:G87 G93:G1048576">
+    <cfRule type="containsText" dxfId="66" priority="90" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="65" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="65" priority="89" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="64" operator="containsText" text="New">
+    <cfRule type="containsText" dxfId="64" priority="88" operator="containsText" text="New">
       <formula>NOT(ISERROR(SEARCH("New",G1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="84" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="55" operator="containsText" text="''">
+    <cfRule type="containsText" dxfId="62" priority="79" operator="containsText" text="''">
       <formula>NOT(ISERROR(SEARCH("''",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L54 L75:L80 L91:L1048576 L56:L71 L82:L87">
-    <cfRule type="cellIs" dxfId="76" priority="56" operator="equal">
+  <conditionalFormatting sqref="L1:L54 L75:L80 L93:L1048576 L56:L71 L82 L84:L87">
+    <cfRule type="cellIs" dxfId="61" priority="80" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="57" operator="containsText" text="New">
+    <cfRule type="containsText" dxfId="60" priority="81" operator="containsText" text="New">
       <formula>NOT(ISERROR(SEARCH("New",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="58" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="59" priority="82" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="59" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="58" priority="83" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72">
-    <cfRule type="containsText" dxfId="72" priority="46" operator="containsText" text="''">
+    <cfRule type="containsText" dxfId="57" priority="70" operator="containsText" text="''">
       <formula>NOT(ISERROR(SEARCH("''",G72)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="75" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="52" operator="containsText" text="New">
+    <cfRule type="containsText" dxfId="55" priority="76" operator="containsText" text="New">
       <formula>NOT(ISERROR(SEARCH("New",G72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="53" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="54" priority="77" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",G72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="54" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="53" priority="78" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",G72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73">
-    <cfRule type="containsText" dxfId="67" priority="37" operator="containsText" text="''">
+    <cfRule type="containsText" dxfId="52" priority="61" operator="containsText" text="''">
       <formula>NOT(ISERROR(SEARCH("''",G73)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="66" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="43" operator="containsText" text="New">
+    <cfRule type="containsText" dxfId="50" priority="67" operator="containsText" text="New">
       <formula>NOT(ISERROR(SEARCH("New",G73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="44" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="49" priority="68" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",G73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="45" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="48" priority="69" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",G73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="62" priority="28" operator="containsText" text="''">
+    <cfRule type="containsText" dxfId="47" priority="52" operator="containsText" text="''">
       <formula>NOT(ISERROR(SEARCH("''",G74)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="57" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="34" operator="containsText" text="New">
+    <cfRule type="containsText" dxfId="45" priority="58" operator="containsText" text="New">
       <formula>NOT(ISERROR(SEARCH("New",G74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="35" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="44" priority="59" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",G74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="36" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="43" priority="60" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",G74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88:G89">
-    <cfRule type="containsText" dxfId="57" priority="19" operator="containsText" text="''">
+    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="''">
       <formula>NOT(ISERROR(SEARCH("''",G88)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="25" operator="containsText" text="New">
+    <cfRule type="containsText" dxfId="40" priority="49" operator="containsText" text="New">
       <formula>NOT(ISERROR(SEARCH("New",G88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="26" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="39" priority="50" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",G88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="27" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="38" priority="51" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",G88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G90">
-    <cfRule type="containsText" dxfId="52" priority="10" operator="containsText" text="''">
+    <cfRule type="containsText" dxfId="37" priority="34" operator="containsText" text="''">
       <formula>NOT(ISERROR(SEARCH("''",G90)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="16" operator="containsText" text="New">
+    <cfRule type="containsText" dxfId="35" priority="40" operator="containsText" text="New">
       <formula>NOT(ISERROR(SEARCH("New",G90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="17" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="34" priority="41" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",G90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="18" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="33" priority="42" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",G90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L88:L90 L81 L72:L74 L55">
-    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="''">
+    <cfRule type="containsText" dxfId="32" priority="29" operator="containsText" text="''">
       <formula>NOT(ISERROR(SEARCH("''",L55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="7" operator="containsText" text="New">
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="New">
       <formula>NOT(ISERROR(SEARCH("New",L55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="8" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="28" priority="33" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",L55)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="last7Days">
+  <conditionalFormatting sqref="I120:I1048576 I1:I118">
+    <cfRule type="timePeriod" dxfId="3" priority="25" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(I1,1)&lt;=6,FLOOR(I1,1)&lt;=TODAY())</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="4" priority="2" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(I1,1)&lt;=6,FLOOR(I1,1)&lt;=TODAY())</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="5" priority="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(I1)=MONTH(EDATE(TODAY(),0-1)),YEAR(I1)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91:G92">
+    <cfRule type="containsText" dxfId="27" priority="20" operator="containsText" text="''">
+      <formula>NOT(ISERROR(SEARCH("''",G91)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="21" operator="equal">
+      <formula>""""""</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="New">
+      <formula>NOT(ISERROR(SEARCH("New",G91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",G91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",G91)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L91:L92">
+    <cfRule type="containsText" dxfId="22" priority="15" operator="containsText" text="''">
+      <formula>NOT(ISERROR(SEARCH("''",L91)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
+      <formula>""""""</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="New">
+      <formula>NOT(ISERROR(SEARCH("New",L91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",L91)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I91:I92">
+    <cfRule type="timePeriod" dxfId="17" priority="14" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(I91,1)&lt;=6,FLOOR(I91,1)&lt;=TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G83">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="''">
+      <formula>NOT(ISERROR(SEARCH("''",G83)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+      <formula>""""""</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="New">
+      <formula>NOT(ISERROR(SEARCH("New",G83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",G83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",G83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L83">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="''">
+      <formula>NOT(ISERROR(SEARCH("''",L83)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+      <formula>""""""</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="New">
+      <formula>NOT(ISERROR(SEARCH("New",L83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",L83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I83">
+    <cfRule type="timePeriod" dxfId="6" priority="3" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(I83,1)&lt;=6,FLOOR(I83,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10727,10 +7998,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10738,10 +8009,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -10749,10 +8020,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -10760,10 +8031,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -10771,10 +8042,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -10782,10 +8053,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -10793,13 +8064,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
         <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -10807,13 +8078,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -10821,10 +8092,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -10832,7 +8103,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
         <v>83</v>
@@ -10843,10 +8114,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -10854,7 +8125,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PM-1 Project Management/PM-1.2 Plans/PM-1.2.1 Project Plan/vms_pm121_implementation_plan_v0.1a.xlsx
+++ b/docs/PM-1 Project Management/PM-1.2 Plans/PM-1.2.1 Project Plan/vms_pm121_implementation_plan_v0.1a.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="167">
   <si>
     <t>No</t>
   </si>
@@ -701,6 +701,9 @@
   </si>
   <si>
     <t>Find code to do upload to table</t>
+  </si>
+  <si>
+    <t>WIP</t>
   </si>
 </sst>
 </file>
@@ -2082,67 +2085,7 @@
     <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="64">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2330,6 +2273,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3905,8 +3878,8 @@
   <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4802,7 +4775,7 @@
         <v>40905</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="L25" s="19" t="s">
         <v>86</v>
@@ -5595,7 +5568,7 @@
         <v>3</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="H50" s="20">
         <v>40904</v>
@@ -5604,7 +5577,7 @@
         <v>40904</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="L50" s="19" t="s">
         <v>86</v>
@@ -5659,7 +5632,7 @@
         <v>5</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="H52" s="20">
         <v>40906</v>
@@ -5668,7 +5641,7 @@
         <v>40906</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="L52" s="19" t="s">
         <v>86</v>
@@ -6830,35 +6803,35 @@
         <v>162</v>
       </c>
     </row>
-    <row r="91" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C91" s="19" t="s">
+    <row r="91" spans="2:13" s="21" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C91" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D91" s="19" t="s">
+      <c r="D91" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E91" s="19" t="s">
+      <c r="E91" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F91" s="23">
+      <c r="F91" s="24">
         <v>4</v>
       </c>
-      <c r="G91" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="H91" s="20">
+      <c r="G91" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H91" s="25">
         <v>40909</v>
       </c>
-      <c r="I91" s="20">
+      <c r="I91" s="25">
         <v>40910</v>
       </c>
-      <c r="J91" s="19" t="s">
+      <c r="J91" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="19" t="s">
+      <c r="L91" s="21" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7621,35 +7594,35 @@
         <v>86</v>
       </c>
     </row>
-    <row r="117" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="19" t="s">
+    <row r="117" spans="2:12" s="21" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C117" s="19" t="s">
+      <c r="C117" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D117" s="19" t="s">
+      <c r="D117" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E117" s="19" t="s">
+      <c r="E117" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F117" s="23">
+      <c r="F117" s="24">
         <v>2</v>
       </c>
-      <c r="G117" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="H117" s="20">
+      <c r="G117" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H117" s="25">
         <v>40909</v>
       </c>
-      <c r="I117" s="20">
+      <c r="I117" s="25">
         <v>40909</v>
       </c>
-      <c r="J117" s="19" t="s">
+      <c r="J117" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="L117" s="19" t="s">
+      <c r="L117" s="21" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7728,228 +7701,229 @@
       <filters>
         <filter val="Done"/>
         <filter val="New"/>
+        <filter val="WIP"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="G1:G71 G75:G82 G84:G87 G93:G1048576">
-    <cfRule type="containsText" dxfId="66" priority="90" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="63" priority="90" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="89" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="62" priority="89" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="88" operator="containsText" text="New">
+    <cfRule type="containsText" dxfId="61" priority="88" operator="containsText" text="New">
       <formula>NOT(ISERROR(SEARCH("New",G1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="84" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="79" operator="containsText" text="''">
+    <cfRule type="containsText" dxfId="59" priority="79" operator="containsText" text="''">
       <formula>NOT(ISERROR(SEARCH("''",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L54 L75:L80 L93:L1048576 L56:L71 L82 L84:L87">
-    <cfRule type="cellIs" dxfId="61" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="80" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="81" operator="containsText" text="New">
+    <cfRule type="containsText" dxfId="57" priority="81" operator="containsText" text="New">
       <formula>NOT(ISERROR(SEARCH("New",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="82" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="56" priority="82" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="83" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="55" priority="83" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72">
-    <cfRule type="containsText" dxfId="57" priority="70" operator="containsText" text="''">
+    <cfRule type="containsText" dxfId="54" priority="70" operator="containsText" text="''">
       <formula>NOT(ISERROR(SEARCH("''",G72)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="75" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="76" operator="containsText" text="New">
+    <cfRule type="containsText" dxfId="52" priority="76" operator="containsText" text="New">
       <formula>NOT(ISERROR(SEARCH("New",G72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="77" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="51" priority="77" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",G72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="78" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="50" priority="78" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",G72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73">
-    <cfRule type="containsText" dxfId="52" priority="61" operator="containsText" text="''">
+    <cfRule type="containsText" dxfId="49" priority="61" operator="containsText" text="''">
       <formula>NOT(ISERROR(SEARCH("''",G73)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="66" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="67" operator="containsText" text="New">
+    <cfRule type="containsText" dxfId="47" priority="67" operator="containsText" text="New">
       <formula>NOT(ISERROR(SEARCH("New",G73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="68" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="46" priority="68" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",G73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="69" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="45" priority="69" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",G73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="47" priority="52" operator="containsText" text="''">
+    <cfRule type="containsText" dxfId="44" priority="52" operator="containsText" text="''">
       <formula>NOT(ISERROR(SEARCH("''",G74)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="57" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="58" operator="containsText" text="New">
+    <cfRule type="containsText" dxfId="42" priority="58" operator="containsText" text="New">
       <formula>NOT(ISERROR(SEARCH("New",G74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="59" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="41" priority="59" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",G74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="60" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="40" priority="60" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",G74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88:G89">
-    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="''">
+    <cfRule type="containsText" dxfId="39" priority="43" operator="containsText" text="''">
       <formula>NOT(ISERROR(SEARCH("''",G88)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="48" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="49" operator="containsText" text="New">
+    <cfRule type="containsText" dxfId="37" priority="49" operator="containsText" text="New">
       <formula>NOT(ISERROR(SEARCH("New",G88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="50" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="36" priority="50" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",G88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="51" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="35" priority="51" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",G88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G90">
-    <cfRule type="containsText" dxfId="37" priority="34" operator="containsText" text="''">
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="''">
       <formula>NOT(ISERROR(SEARCH("''",G90)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="40" operator="containsText" text="New">
+    <cfRule type="containsText" dxfId="32" priority="40" operator="containsText" text="New">
       <formula>NOT(ISERROR(SEARCH("New",G90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="41" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="31" priority="41" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",G90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="42" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="30" priority="42" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",G90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L88:L90 L81 L72:L74 L55">
-    <cfRule type="containsText" dxfId="32" priority="29" operator="containsText" text="''">
+    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="''">
       <formula>NOT(ISERROR(SEARCH("''",L55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="New">
+    <cfRule type="containsText" dxfId="27" priority="31" operator="containsText" text="New">
       <formula>NOT(ISERROR(SEARCH("New",L55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="26" priority="32" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="33" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="25" priority="33" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",L55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I120:I1048576 I1:I118">
-    <cfRule type="timePeriod" dxfId="3" priority="25" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="24" priority="25" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(I1,1)&lt;=6,FLOOR(I1,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="4" priority="2" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="23" priority="2" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(I1,1)&lt;=6,FLOOR(I1,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="5" priority="1" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="22" priority="1" timePeriod="lastMonth">
       <formula>AND(MONTH(I1)=MONTH(EDATE(TODAY(),0-1)),YEAR(I1)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G91:G92">
-    <cfRule type="containsText" dxfId="27" priority="20" operator="containsText" text="''">
+    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="''">
       <formula>NOT(ISERROR(SEARCH("''",G91)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="New">
+    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="New">
       <formula>NOT(ISERROR(SEARCH("New",G91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="18" priority="23" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",G91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="17" priority="24" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",G91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L91:L92">
-    <cfRule type="containsText" dxfId="22" priority="15" operator="containsText" text="''">
+    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="''">
       <formula>NOT(ISERROR(SEARCH("''",L91)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="New">
+    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="New">
       <formula>NOT(ISERROR(SEARCH("New",L91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="13" priority="18" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",L91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91:I92">
-    <cfRule type="timePeriod" dxfId="17" priority="14" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="11" priority="14" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(I91,1)&lt;=6,FLOOR(I91,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83">
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="''">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="''">
       <formula>NOT(ISERROR(SEARCH("''",G83)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="New">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="New">
       <formula>NOT(ISERROR(SEARCH("New",G83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",G83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L83">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="''">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="''">
       <formula>NOT(ISERROR(SEARCH("''",L83)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>""""""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="New">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="New">
       <formula>NOT(ISERROR(SEARCH("New",L83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",L83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="timePeriod" dxfId="6" priority="3" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="0" priority="3" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(I83,1)&lt;=6,FLOOR(I83,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/PM-1 Project Management/PM-1.2 Plans/PM-1.2.1 Project Plan/vms_pm121_implementation_plan_v0.1a.xlsx
+++ b/docs/PM-1 Project Management/PM-1.2 Plans/PM-1.2.1 Project Plan/vms_pm121_implementation_plan_v0.1a.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overall!$A$1:$E$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tasks!$A$1:$N$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tasks!$A$1:$N$120</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="170">
   <si>
     <t>No</t>
   </si>
@@ -704,6 +704,15 @@
   </si>
   <si>
     <t>WIP</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>User password decryption</t>
+  </si>
+  <si>
+    <t>UCRR (Design)</t>
   </si>
 </sst>
 </file>
@@ -3875,11 +3884,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4127,7 +4136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>79</v>
       </c>
@@ -4165,7 +4174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>79</v>
       </c>
@@ -4182,7 +4191,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H8" s="20">
         <v>40902</v>
@@ -4339,7 +4348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
         <v>94</v>
       </c>
@@ -4377,7 +4386,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
         <v>96</v>
       </c>
@@ -4415,7 +4424,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
         <v>97</v>
       </c>
@@ -4492,7 +4501,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
         <v>100</v>
       </c>
@@ -4524,7 +4533,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>79</v>
       </c>
@@ -4557,7 +4566,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
         <v>79</v>
       </c>
@@ -4589,7 +4598,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
         <v>79</v>
       </c>
@@ -4621,7 +4630,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
         <v>79</v>
       </c>
@@ -4653,7 +4662,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
         <v>79</v>
       </c>
@@ -4685,7 +4694,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
         <v>79</v>
       </c>
@@ -4717,7 +4726,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
         <v>79</v>
       </c>
@@ -4749,39 +4758,39 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="19" t="s">
+    <row r="25" spans="2:12" s="21" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="24">
         <v>10</v>
       </c>
-      <c r="G25" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="20">
+      <c r="G25" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" s="25">
         <v>40905</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="25">
         <v>40905</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="L25" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
         <v>79</v>
       </c>
@@ -4807,13 +4816,13 @@
         <v>40906</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L26" s="19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
         <v>79</v>
       </c>
@@ -5487,7 +5496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="19" t="s">
         <v>110</v>
       </c>
@@ -5519,7 +5528,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>110</v>
       </c>
@@ -5551,7 +5560,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="19" t="s">
         <v>110</v>
       </c>
@@ -5568,7 +5577,7 @@
         <v>3</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="H50" s="20">
         <v>40904</v>
@@ -5583,7 +5592,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>110</v>
       </c>
@@ -5600,7 +5609,7 @@
         <v>4</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="H51" s="20">
         <v>40905</v>
@@ -5609,13 +5618,13 @@
         <v>40905</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="L51" s="19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="19" t="s">
         <v>110</v>
       </c>
@@ -5647,7 +5656,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>110</v>
       </c>
@@ -5679,7 +5688,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="19" t="s">
         <v>110</v>
       </c>
@@ -6528,7 +6537,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="19" t="s">
         <v>122</v>
       </c>
@@ -6835,7 +6844,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="92" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="19" t="s">
         <v>97</v>
       </c>
@@ -7147,7 +7156,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="19" t="s">
         <v>129</v>
       </c>
@@ -7179,7 +7188,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="104" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="19" t="s">
         <v>129</v>
       </c>
@@ -7211,7 +7220,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="105" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="19" t="s">
         <v>129</v>
       </c>
@@ -7243,7 +7252,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="19" t="s">
         <v>129</v>
       </c>
@@ -7275,7 +7284,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="19" t="s">
         <v>129</v>
       </c>
@@ -7307,7 +7316,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="108" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="19" t="s">
         <v>129</v>
       </c>
@@ -7339,7 +7348,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="109" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="19" t="s">
         <v>129</v>
       </c>
@@ -7371,7 +7380,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="110" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="19" t="s">
         <v>122</v>
       </c>
@@ -7404,7 +7413,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="111" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="19" t="s">
         <v>100</v>
       </c>
@@ -7436,7 +7445,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="112" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="19" t="s">
         <v>100</v>
       </c>
@@ -7468,7 +7477,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="113" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="19" t="s">
         <v>100</v>
       </c>
@@ -7500,7 +7509,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="114" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="19" t="s">
         <v>100</v>
       </c>
@@ -7562,7 +7571,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="116" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="19" t="s">
         <v>91</v>
       </c>
@@ -7626,7 +7635,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="118" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="19" t="s">
         <v>110</v>
       </c>
@@ -7640,10 +7649,10 @@
         <v>82</v>
       </c>
       <c r="F118" s="23">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G118" s="19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H118" s="20">
         <v>40909</v>
@@ -7652,13 +7661,13 @@
         <v>40909</v>
       </c>
       <c r="J118" s="19" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="L118" s="19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="119" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="19" t="s">
         <v>91</v>
       </c>
@@ -7684,22 +7693,58 @@
         <v>40910</v>
       </c>
       <c r="J119" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L119" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E120" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F120" s="23">
+        <v>3</v>
+      </c>
+      <c r="G120" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H120" s="20">
+        <v>40910</v>
+      </c>
+      <c r="I120" s="20">
+        <v>40910</v>
+      </c>
+      <c r="J120" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="L119" s="19" t="s">
-        <v>86</v>
+      <c r="L120" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="19" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N119">
+  <autoFilter ref="A1:N120">
     <filterColumn colId="3">
       <filters>
-        <filter val="Code"/>
+        <filter val="Documentation"/>
       </filters>
     </filterColumn>
     <filterColumn colId="6">
       <filters>
-        <filter val="Done"/>
         <filter val="New"/>
         <filter val="WIP"/>
       </filters>
@@ -7722,7 +7767,7 @@
       <formula>NOT(ISERROR(SEARCH("''",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L54 L75:L80 L93:L1048576 L56:L71 L82 L84:L87">
+  <conditionalFormatting sqref="L1:L54 L75:L80 L56:L71 L82 L84:L87 L93:L1048576">
     <cfRule type="cellIs" dxfId="58" priority="80" operator="equal">
       <formula>""""""</formula>
     </cfRule>
@@ -7838,7 +7883,7 @@
       <formula>NOT(ISERROR(SEARCH("Done",L55)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I120:I1048576 I1:I118">
+  <conditionalFormatting sqref="I121:I1048576 I1:I118">
     <cfRule type="timePeriod" dxfId="24" priority="25" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(I1,1)&lt;=6,FLOOR(I1,1)&lt;=TODAY())</formula>
     </cfRule>
